--- a/data_list/小品节目单.xlsx
+++ b/data_list/小品节目单.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\code\python\tools\data_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25AE86D-2BF8-4D5A-A72B-E18D378C2EA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E567B1-AB62-4195-8C4E-4BEFDB8B8D34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="3630" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="working" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="147">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1222,6 +1222,431 @@
   </si>
   <si>
     <t>https://www.bilibili.com/video/BV1PK411L7Nt?from=search&amp;seid=11202400893668484052</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1yz4y1m78d?from=search&amp;seid=5479812248352780767</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1sx411U7sH?from=search&amp;seid=3099414554616999269</t>
+  </si>
+  <si>
+    <t>1995年、《有事您说话》（郭冬临、李文启、买红妹）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1Eh41117cs?from=search&amp;seid=4808853609018954499</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1996年、《路口》（郭冬临、魏积安、赵亮）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1999年、《球迷》（郭冬临、郭达、蔡明）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1Vs411F72h?from=search&amp;seid=7623717545558088110</t>
+  </si>
+  <si>
+    <t>2000年、《旧曲新歌》（郭冬临、冯巩）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1vx411g7KM?from=search&amp;seid=11080792917114807049</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV16x411P7pA?from=search&amp;seid=15810854782378448072</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001年、《得寸进尺》（郭冬临、冯巩、郭月）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2002年、《台上台下》（郭冬临、冯巩、陆鸣）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1kx411U7Xe?from=search&amp;seid=6253586485549669595</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1Yb411E7kp?from=search&amp;seid=16447499760468366956</t>
+  </si>
+  <si>
+    <r>
+      <t>2005</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、《男子汉大丈夫》（郭冬临、牛莉）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2006年、《实诚人》（郭冬临、魏积安、黄晓娟）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1Gb411c7c4?from=search&amp;seid=16515846612738176233</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1Gb411c7NY?from=search&amp;seid=10100381361683150308</t>
+  </si>
+  <si>
+    <t>2007年、《回家》（郭冬临、邵峰）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2008</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、《新闻人物》（郭冬临、周涛）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1Zs411Q7cc?from=search&amp;seid=15098531939502950542</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1RC4y147c1?from=search&amp;seid=3858896933930432510</t>
+  </si>
+  <si>
+    <r>
+      <t>2009</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、《看玻璃》（郭冬临、黄晓娟、于洋）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、《一句话的事儿》（郭冬临、牛莉、刘鉴）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1TD4y1S7Mz?from=search&amp;seid=639174504411064864</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1px411x7is?from=search&amp;seid=17860046285535591219</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2012</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、《面试》（郭冬临、魏积安、何军、付俊琪）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1xb411c7Ag?from=search&amp;seid=12545547671529057656</t>
+  </si>
+  <si>
+    <r>
+      <t>2014</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、《人到礼到》（郭冬临、牛莉、邵峰）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1Yb411K7UQ?from=search&amp;seid=3745455224695756964</t>
+  </si>
+  <si>
+    <r>
+      <t>2015</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、《一定找到你》（郭冬临、牛莉、邵峰）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2016</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、《是谁呢？》（郭冬临、黄杨、刘亚津、马天宇、关晓彤）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1hU4y147jy?from=search&amp;seid=11836184015615048991</t>
+  </si>
+  <si>
+    <r>
+      <t>2019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、《爱的代驾》（郭冬临、邵峰）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1993</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、《市场速写》（郭冬临、张慈、法比奥）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1gW411H7Js?from=search&amp;seid=13605586629527111575</t>
+  </si>
+  <si>
+    <t>1990年、《打麻将》（巩汉林、岳红）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tv.cctv.com/2009/11/11/VIDE1355602891597670.shtml</t>
+  </si>
+  <si>
+    <r>
+      <t>1991</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、《陌生人》（巩汉林、蔡明）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tv.cctv.com/2013/06/14/VIDE1371191946075830.shtml</t>
+  </si>
+  <si>
+    <t>1992年、《妈妈的今天》（巩汉林、赵丽蓉）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1SK4y1n7yb?from=search&amp;seid=524683501646752961</t>
+  </si>
+  <si>
+    <t>1992年、《街头奇遇》（巩汉林、金珠）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1oC4y1a7cR?from=search&amp;seid=14559974033334092679</t>
+  </si>
+  <si>
+    <t>2000年、《同桌的她》（巩汉林、潘长江、王思懿）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1Rs411w7XS?from=search&amp;seid=15886028014549653750</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001年、《动物运动会》（巩汉林、刘流）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1HV411b7eo?from=search&amp;seid=10956875833586273145</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2004年、《我们都是外乡人》（巩汉林、柏青、韩再芬）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tv.cctv.com/2014/12/10/VIDE1418180234255466.shtml</t>
+  </si>
+  <si>
+    <t>2010年、《美丽的尴尬》（巩汉林、黄宏、林永健、金玉婷）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1615,15 +2040,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="52.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="88.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1635,160 +2060,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B18" t="s">
-        <v>95</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{0C85E747-BC08-46D6-8070-12D806C417E2}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{9540B3F1-BF79-4A0D-80F6-296745657513}"/>
-    <hyperlink ref="B9" r:id="rId3" xr:uid="{366DBEDB-0D64-4525-ADB4-380BEA36BC51}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3AEF71E-C1B9-4350-9BBF-7BAB7480808A}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B30"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66:B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2037,14 +2321,368 @@
         <v>60</v>
       </c>
     </row>
+    <row r="31" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B64" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B67" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>136</v>
+      </c>
+      <c r="B68" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>138</v>
+      </c>
+      <c r="B69" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>144</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>146</v>
+      </c>
+      <c r="B73" t="s">
+        <v>145</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{367F80CC-647A-4163-9086-34B32729D88E}"/>
     <hyperlink ref="B23" r:id="rId2" xr:uid="{FB66BDC3-190C-4215-9EFE-3B879A24CEB7}"/>
     <hyperlink ref="B29" r:id="rId3" xr:uid="{EBE4E8DD-6A23-4782-8FD7-6D62FD3C8C73}"/>
+    <hyperlink ref="B32" r:id="rId4" xr:uid="{0C85E747-BC08-46D6-8070-12D806C417E2}"/>
+    <hyperlink ref="B34" r:id="rId5" xr:uid="{9540B3F1-BF79-4A0D-80F6-296745657513}"/>
+    <hyperlink ref="B38" r:id="rId6" xr:uid="{366DBEDB-0D64-4525-ADB4-380BEA36BC51}"/>
+    <hyperlink ref="B50" r:id="rId7" xr:uid="{FFACB399-EA4E-42C9-88CE-6247D4F60DE5}"/>
+    <hyperlink ref="B53" r:id="rId8" xr:uid="{F656D4DE-50A4-43CE-849A-0AB7A0CAE777}"/>
+    <hyperlink ref="B54" r:id="rId9" xr:uid="{C8F6FDD9-0B8F-4918-8E86-0E0B7B25FD61}"/>
+    <hyperlink ref="B56" r:id="rId10" xr:uid="{056D775B-5811-401E-AA35-4E3A87D24CD4}"/>
+    <hyperlink ref="B61" r:id="rId11" xr:uid="{6250EDF7-05F1-4850-A805-EFA9418B2DE9}"/>
+    <hyperlink ref="B71" r:id="rId12" xr:uid="{B60BA8B1-B9E7-47E2-B0B3-9D26FC36BDAF}"/>
+    <hyperlink ref="B72" r:id="rId13" xr:uid="{700D6620-46DB-421A-ACA7-CEB21F259D71}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>